--- a/biology/Zoologie/Coendou_nycthemera/Coendou_nycthemera.xlsx
+++ b/biology/Zoologie/Coendou_nycthemera/Coendou_nycthemera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coendou nycthemera est une espèce de rongeurs de la famille des Erethizontidae. Cette dernière rassemble les porcs-épics du continent américain. C'est un mammifère terrestre, endémique du Brésil dont on ne sait que très peu de choses hormis qu'il est herbivore et nocturne. On le rencontre à basse altitude dans les forêts tropicales humides et primaires[1]. 
-Cette espèce a été décrite pour la première fois en 1818 par le naturaliste allemand Ignaz von Olfers (1793-1871)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coendou nycthemera est une espèce de rongeurs de la famille des Erethizontidae. Cette dernière rassemble les porcs-épics du continent américain. C'est un mammifère terrestre, endémique du Brésil dont on ne sait que très peu de choses hormis qu'il est herbivore et nocturne. On le rencontre à basse altitude dans les forêts tropicales humides et primaires. 
+Cette espèce a été décrite pour la première fois en 1818 par le naturaliste allemand Ignaz von Olfers (1793-1871).
 </t>
         </is>
       </c>
